--- a/public/downloads/Template FIles/Tax Summary report result.xlsx
+++ b/public/downloads/Template FIles/Tax Summary report result.xlsx
@@ -373,7 +373,7 @@
     <tableColumn id="21" uniqueName="21" name="T.TotalTax" queryTableFieldId="20" dataDxfId="1"/>
     <tableColumn id="22" uniqueName="22" name="T.TotalTax1" queryTableFieldId="21" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -643,7 +643,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,7 +797,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
